--- a/dados/sita9289590.xlsx
+++ b/dados/sita9289590.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:154235731#searchVariation=MLB27687422&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=24bc645c-abde-45ea-b5de-a686be4fce7b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:154235731#searchVariation=MLB27687422&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=c7de5016-8467-4dd8-8318-9a4483899c31</t>
         </is>
       </c>
     </row>
@@ -496,17 +512,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:154235731#searchVariation=MLB25707531&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=24bc645c-abde-45ea-b5de-a686be4fce7b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:154235731#searchVariation=MLB25707531&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=c7de5016-8467-4dd8-8318-9a4483899c31</t>
         </is>
       </c>
     </row>
@@ -521,17 +543,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:154235731#searchVariation=MLB28687615&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=24bc645c-abde-45ea-b5de-a686be4fce7b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:154235731#searchVariation=MLB28687615&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=c7de5016-8467-4dd8-8318-9a4483899c31</t>
         </is>
       </c>
     </row>
@@ -546,17 +574,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4531110844-filtro-anti-ruido-jfa-com-blindagem-eletromagnetica-2020k-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D24bc645c-abde-45ea-b5de-a686be4fce7b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4531110844-filtro-anti-ruido-jfa-com-blindagem-eletromagnetica-2020k-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7de5016-8467-4dd8-8318-9a4483899c31</t>
         </is>
       </c>
     </row>
@@ -571,17 +605,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4531096344-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D24bc645c-abde-45ea-b5de-a686be4fce7b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4531096344-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7de5016-8467-4dd8-8318-9a4483899c31</t>
         </is>
       </c>
     </row>
@@ -596,17 +636,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3629883283-fonte-digital-jfa-70a-storm-carregador-inteligente-bateria-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D24bc645c-abde-45ea-b5de-a686be4fce7b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3629883283-fonte-digital-jfa-70a-storm-carregador-inteligente-bateria-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7de5016-8467-4dd8-8318-9a4483899c31</t>
         </is>
       </c>
     </row>
@@ -621,17 +671,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3629903553-fonte-automotiva-jfa-bob-storm-90a-bivolt-carregador-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D24bc645c-abde-45ea-b5de-a686be4fce7b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3629903553-fonte-automotiva-jfa-bob-storm-90a-bivolt-carregador-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7de5016-8467-4dd8-8318-9a4483899c31</t>
         </is>
       </c>
     </row>
@@ -646,17 +706,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3629872501-fonte-carregador-de-bateria-jfa-40a-storm-som-automotivo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D24bc645c-abde-45ea-b5de-a686be4fce7b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3629872501-fonte-carregador-de-bateria-jfa-40a-storm-som-automotivo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7de5016-8467-4dd8-8318-9a4483899c31</t>
         </is>
       </c>
     </row>
@@ -671,17 +741,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3629847295-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D24bc645c-abde-45ea-b5de-a686be4fce7b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3629847295-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7de5016-8467-4dd8-8318-9a4483899c31</t>
         </is>
       </c>
     </row>

--- a/dados/sita9289590.xlsx
+++ b/dados/sita9289590.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,13 +476,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>63.9</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:154235731#searchVariation=MLB27687422&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=c7de5016-8467-4dd8-8318-9a4483899c31</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:154235731#searchVariation=MLB27687422&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=7990bcc2-e448-4b3e-809c-2129bf5eefd0</t>
         </is>
       </c>
     </row>
@@ -507,13 +507,13 @@
           <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>42</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:154235731#searchVariation=MLB25707531&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=c7de5016-8467-4dd8-8318-9a4483899c31</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:154235731#searchVariation=MLB25707531&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=7990bcc2-e448-4b3e-809c-2129bf5eefd0</t>
         </is>
       </c>
     </row>
@@ -538,13 +538,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>65</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:154235731#searchVariation=MLB28687615&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=c7de5016-8467-4dd8-8318-9a4483899c31</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:154235731#searchVariation=MLB28687615&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=7990bcc2-e448-4b3e-809c-2129bf5eefd0</t>
         </is>
       </c>
     </row>
@@ -569,13 +569,13 @@
           <t>Filtro Anti-ruido Jfa Com Blindagem Eletromagnética 20/20k</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>52.9</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4531110844-filtro-anti-ruido-jfa-com-blindagem-eletromagnetica-2020k-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7de5016-8467-4dd8-8318-9a4483899c31</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4531110844-filtro-anti-ruido-jfa-com-blindagem-eletromagnetica-2020k-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7990bcc2-e448-4b3e-809c-2129bf5eefd0</t>
         </is>
       </c>
     </row>
@@ -600,13 +600,13 @@
           <t>Voltímetro Jfa Vs5hi 3 Em 1 Sequenciador High Voltagem /12v</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>52.99</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4531096344-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7de5016-8467-4dd8-8318-9a4483899c31</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4531096344-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7990bcc2-e448-4b3e-809c-2129bf5eefd0</t>
         </is>
       </c>
     </row>
@@ -631,14 +631,14 @@
           <t xml:space="preserve">Fonte Digital Jfa 70a Storm Carregador Inteligente Bateria </t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>493.99</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -656,7 +656,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3629883283-fonte-digital-jfa-70a-storm-carregador-inteligente-bateria-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7de5016-8467-4dd8-8318-9a4483899c31</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3629883283-fonte-digital-jfa-70a-storm-carregador-inteligente-bateria-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7990bcc2-e448-4b3e-809c-2129bf5eefd0</t>
         </is>
       </c>
     </row>
@@ -666,14 +666,14 @@
           <t>Fonte Automotiva Jfa Bob Storm 90a Bivolt Carregador</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>435</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -691,7 +691,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3629903553-fonte-automotiva-jfa-bob-storm-90a-bivolt-carregador-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7de5016-8467-4dd8-8318-9a4483899c31</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3629903553-fonte-automotiva-jfa-bob-storm-90a-bivolt-carregador-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7990bcc2-e448-4b3e-809c-2129bf5eefd0</t>
         </is>
       </c>
     </row>
@@ -701,14 +701,14 @@
           <t>Fonte Carregador De Bateria Jfa 40a Storm Som Automotivo</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>404</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -726,7 +726,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3629872501-fonte-carregador-de-bateria-jfa-40a-storm-som-automotivo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7de5016-8467-4dd8-8318-9a4483899c31</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3629872501-fonte-carregador-de-bateria-jfa-40a-storm-som-automotivo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7990bcc2-e448-4b3e-809c-2129bf5eefd0</t>
         </is>
       </c>
     </row>
@@ -736,14 +736,14 @@
           <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>443.99</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -761,7 +761,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3629847295-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dc7de5016-8467-4dd8-8318-9a4483899c31</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3629847295-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7990bcc2-e448-4b3e-809c-2129bf5eefd0</t>
         </is>
       </c>
     </row>

--- a/dados/sita9289590.xlsx
+++ b/dados/sita9289590.xlsx
@@ -478,13 +478,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>63.9</v>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>NA</t>
@@ -497,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:154235731#searchVariation=MLB27687422&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=7990bcc2-e448-4b3e-809c-2129bf5eefd0</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:154235731#searchVariation=MLB27687422&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=e79ea6a0-d0c7-4e6a-b34b-52d64dc237fc</t>
         </is>
       </c>
     </row>
@@ -528,7 +532,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:154235731#searchVariation=MLB25707531&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=7990bcc2-e448-4b3e-809c-2129bf5eefd0</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:154235731#searchVariation=MLB25707531&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=e79ea6a0-d0c7-4e6a-b34b-52d64dc237fc</t>
         </is>
       </c>
     </row>
@@ -540,13 +544,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>65</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -559,14 +567,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:154235731#searchVariation=MLB28687615&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=7990bcc2-e448-4b3e-809c-2129bf5eefd0</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:154235731#searchVariation=MLB28687615&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=e79ea6a0-d0c7-4e6a-b34b-52d64dc237fc</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Com Blindagem Eletromagnética 20/20k</t>
+          <t>Voltímetro Jfa Vs5hi 3 Em 1 Sequenciador High Voltagem /12v</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -575,7 +583,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52.9</v>
+        <v>52.99</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
@@ -590,14 +598,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4531110844-filtro-anti-ruido-jfa-com-blindagem-eletromagnetica-2020k-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7990bcc2-e448-4b3e-809c-2129bf5eefd0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4531096344-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De79ea6a0-d0c7-4e6a-b34b-52d64dc237fc</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Voltímetro Jfa Vs5hi 3 Em 1 Sequenciador High Voltagem /12v</t>
+          <t>Filtro Anti-ruido Jfa Com Blindagem Eletromagnética 20/20k</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -606,7 +614,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>52.99</v>
+        <v>52.9</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
@@ -621,7 +629,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4531096344-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7990bcc2-e448-4b3e-809c-2129bf5eefd0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4531110844-filtro-anti-ruido-jfa-com-blindagem-eletromagnetica-2020k-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De79ea6a0-d0c7-4e6a-b34b-52d64dc237fc</t>
         </is>
       </c>
     </row>
@@ -656,7 +664,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3629883283-fonte-digital-jfa-70a-storm-carregador-inteligente-bateria-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7990bcc2-e448-4b3e-809c-2129bf5eefd0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3629883283-fonte-digital-jfa-70a-storm-carregador-inteligente-bateria-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De79ea6a0-d0c7-4e6a-b34b-52d64dc237fc</t>
         </is>
       </c>
     </row>
@@ -691,7 +699,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3629903553-fonte-automotiva-jfa-bob-storm-90a-bivolt-carregador-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7990bcc2-e448-4b3e-809c-2129bf5eefd0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3629903553-fonte-automotiva-jfa-bob-storm-90a-bivolt-carregador-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De79ea6a0-d0c7-4e6a-b34b-52d64dc237fc</t>
         </is>
       </c>
     </row>
@@ -726,7 +734,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3629872501-fonte-carregador-de-bateria-jfa-40a-storm-som-automotivo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7990bcc2-e448-4b3e-809c-2129bf5eefd0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3629872501-fonte-carregador-de-bateria-jfa-40a-storm-som-automotivo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De79ea6a0-d0c7-4e6a-b34b-52d64dc237fc</t>
         </is>
       </c>
     </row>
@@ -761,7 +769,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3629847295-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D7990bcc2-e448-4b3e-809c-2129bf5eefd0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3629847295-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De79ea6a0-d0c7-4e6a-b34b-52d64dc237fc</t>
         </is>
       </c>
     </row>

--- a/dados/sita9289590.xlsx
+++ b/dados/sita9289590.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,303 +483,393 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>sita9289590</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>63.9</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:154235731#searchVariation=MLB27687422&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=e79ea6a0-d0c7-4e6a-b34b-52d64dc237fc</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:154235731#searchVariation=MLB27687422&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=3de79c9a-68f3-4eaf-9f21-b164c6734d5d</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sita9289590</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>42</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:154235731#searchVariation=MLB25707531&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=e79ea6a0-d0c7-4e6a-b34b-52d64dc237fc</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:154235731#searchVariation=MLB25707531&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=3de79c9a-68f3-4eaf-9f21-b164c6734d5d</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>sita9289590</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>65</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:154235731#searchVariation=MLB28687615&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=e79ea6a0-d0c7-4e6a-b34b-52d64dc237fc</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:154235731#searchVariation=MLB28687615&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=3de79c9a-68f3-4eaf-9f21-b164c6734d5d</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Voltímetro Jfa Vs5hi 3 Em 1 Sequenciador High Voltagem /12v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>sita9289590</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Filtro Anti-ruido Jfa Com Blindagem Eletromagnética 20/20k</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>52.99</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4531096344-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De79ea6a0-d0c7-4e6a-b34b-52d64dc237fc</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4531110844-filtro-anti-ruido-jfa-com-blindagem-eletromagnetica-2020k-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3de79c9a-68f3-4eaf-9f21-b164c6734d5d</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Com Blindagem Eletromagnética 20/20k</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>sita9289590</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Voltímetro Jfa Vs5hi 3 Em 1 Sequenciador High Voltagem /12v</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4531110844-filtro-anti-ruido-jfa-com-blindagem-eletromagnetica-2020k-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De79ea6a0-d0c7-4e6a-b34b-52d64dc237fc</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4531096344-voltimetro-jfa-vs5hi-3-em-1-sequenciador-high-voltagem-12v-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3de79c9a-68f3-4eaf-9f21-b164c6734d5d</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Digital Jfa 70a Storm Carregador Inteligente Bateria </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>493.99</v>
+          <t>sita9289590</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Bob Storm 90a Bivolt Carregador</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>435</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3629883283-fonte-digital-jfa-70a-storm-carregador-inteligente-bateria-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De79ea6a0-d0c7-4e6a-b34b-52d64dc237fc</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3629903553-fonte-automotiva-jfa-bob-storm-90a-bivolt-carregador-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3de79c9a-68f3-4eaf-9f21-b164c6734d5d</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Bob Storm 90a Bivolt Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>435</v>
+          <t>sita9289590</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte Digital Jfa 70a Storm Carregador Inteligente Bateria </t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>493.99</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3629903553-fonte-automotiva-jfa-bob-storm-90a-bivolt-carregador-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De79ea6a0-d0c7-4e6a-b34b-52d64dc237fc</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3629883283-fonte-digital-jfa-70a-storm-carregador-inteligente-bateria-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3de79c9a-68f3-4eaf-9f21-b164c6734d5d</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>sita9289590</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Fonte Carregador De Bateria Jfa 40a Storm Som Automotivo</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>FONTE 40A STORM</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="E9" t="n">
         <v>404</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3629872501-fonte-carregador-de-bateria-jfa-40a-storm-som-automotivo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De79ea6a0-d0c7-4e6a-b34b-52d64dc237fc</t>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3629872501-fonte-carregador-de-bateria-jfa-40a-storm-som-automotivo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3de79c9a-68f3-4eaf-9f21-b164c6734d5d</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>sita9289590</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>FONTE 60A STORM</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="E10" t="n">
         <v>443.99</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3629847295-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De79ea6a0-d0c7-4e6a-b34b-52d64dc237fc</t>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3629847295-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3de79c9a-68f3-4eaf-9f21-b164c6734d5d</t>
         </is>
       </c>
     </row>
